--- a/warlock/checklist.xlsx
+++ b/warlock/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/warlock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E02460-41C3-5648-8A8D-90FBDDA30412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAE4A61C-6B04-CA43-A6E7-D39547E7D4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6A734755-0472-A246-937B-814011631BB2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
   <si>
     <t>year</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>社会思想社</t>
-  </si>
-  <si>
-    <t>1987/02</t>
   </si>
   <si>
     <t>1987/03</t>
@@ -609,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83F7A66-A304-A041-AEDA-FBBD35392350}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E65"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E65" si="0">CONCATENATE(SUBSTITUTE(B3,"/",""),".jpg")</f>
+        <f t="shared" ref="E3:E64" si="0">CONCATENATE(SUBSTITUTE(B3,"/",""),".jpg")</f>
         <v>198701.jpg</v>
       </c>
     </row>
@@ -679,7 +676,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>198702.jpg</v>
+        <v>198703.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -694,7 +691,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>198703.jpg</v>
+        <v>198704.jpg</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -709,7 +706,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>198704.jpg</v>
+        <v>198705.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -724,7 +721,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>198705.jpg</v>
+        <v>198706.jpg</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -739,7 +736,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>198706.jpg</v>
+        <v>198707.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -754,7 +751,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>198707.jpg</v>
+        <v>198708.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -769,7 +766,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>198708.jpg</v>
+        <v>198709.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -784,7 +781,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>198709.jpg</v>
+        <v>198710.jpg</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -799,7 +796,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>198710.jpg</v>
+        <v>198711.jpg</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -814,12 +811,12 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>198711.jpg</v>
+        <v>198712.jpg</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -829,7 +826,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>198712.jpg</v>
+        <v>198801.jpg</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -844,7 +841,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>198801.jpg</v>
+        <v>198802.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -859,7 +856,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>198802.jpg</v>
+        <v>198803.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -874,7 +871,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>198803.jpg</v>
+        <v>198804.jpg</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -889,7 +886,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>198804.jpg</v>
+        <v>198805.jpg</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -904,7 +901,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>198805.jpg</v>
+        <v>198806.jpg</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -919,7 +916,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>198806.jpg</v>
+        <v>198807.jpg</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -934,7 +931,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>198807.jpg</v>
+        <v>198808.jpg</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -949,7 +946,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>198808.jpg</v>
+        <v>198809.jpg</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -964,7 +961,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>198809.jpg</v>
+        <v>198810.jpg</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -979,7 +976,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>198810.jpg</v>
+        <v>198811.jpg</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -994,12 +991,12 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>198811.jpg</v>
+        <v>198812.jpg</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -1009,7 +1006,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>198812.jpg</v>
+        <v>198901.jpg</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1024,7 +1021,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>198901.jpg</v>
+        <v>198902.jpg</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1039,7 +1036,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>198902.jpg</v>
+        <v>198903.jpg</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1054,7 +1051,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>198903.jpg</v>
+        <v>198904.jpg</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1069,7 +1066,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>198904.jpg</v>
+        <v>198905.jpg</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1084,7 +1081,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>198905.jpg</v>
+        <v>198906.jpg</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1099,7 +1096,7 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>198906.jpg</v>
+        <v>198907.jpg</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1114,7 +1111,7 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>198907.jpg</v>
+        <v>198908.jpg</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1129,7 +1126,7 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>198908.jpg</v>
+        <v>198909.jpg</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1144,7 +1141,7 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>198909.jpg</v>
+        <v>198910.jpg</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1159,7 +1156,7 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>198910.jpg</v>
+        <v>198911.jpg</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1174,12 +1171,12 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>198911.jpg</v>
+        <v>198912.jpg</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -1189,7 +1186,7 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>198912.jpg</v>
+        <v>199001.jpg</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1204,7 +1201,7 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>199001.jpg</v>
+        <v>199002.jpg</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1219,7 +1216,7 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>199002.jpg</v>
+        <v>199003.jpg</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1234,7 +1231,7 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>199003.jpg</v>
+        <v>199004.jpg</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1249,7 +1246,7 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>199004.jpg</v>
+        <v>199005.jpg</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1264,7 +1261,7 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>199005.jpg</v>
+        <v>199006.jpg</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1279,7 +1276,7 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>199006.jpg</v>
+        <v>199007.jpg</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1294,7 +1291,7 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>199007.jpg</v>
+        <v>199008.jpg</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1309,7 +1306,7 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>199008.jpg</v>
+        <v>199009.jpg</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1324,7 +1321,7 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>199009.jpg</v>
+        <v>199010.jpg</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1339,7 +1336,7 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>199010.jpg</v>
+        <v>199011.jpg</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1354,12 +1351,12 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>199011.jpg</v>
+        <v>199012.jpg</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
@@ -1369,7 +1366,7 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>199012.jpg</v>
+        <v>199101.jpg</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1384,7 +1381,7 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>199101.jpg</v>
+        <v>199102.jpg</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1399,7 +1396,7 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>199102.jpg</v>
+        <v>199103.jpg</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1414,7 +1411,7 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>199103.jpg</v>
+        <v>199104.jpg</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1429,7 +1426,7 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>199104.jpg</v>
+        <v>199105.jpg</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1444,7 +1441,7 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>199105.jpg</v>
+        <v>199106.jpg</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1459,7 +1456,7 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>199106.jpg</v>
+        <v>199107.jpg</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1474,7 +1471,7 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>199107.jpg</v>
+        <v>199108.jpg</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1489,7 +1486,7 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>199108.jpg</v>
+        <v>199109.jpg</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1504,7 +1501,7 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>199109.jpg</v>
+        <v>199110.jpg</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1519,7 +1516,7 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>199110.jpg</v>
+        <v>199111.jpg</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1534,12 +1531,12 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>199111.jpg</v>
+        <v>199112.jpg</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
@@ -1549,7 +1546,7 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>199112.jpg</v>
+        <v>199201.jpg</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1564,7 +1561,7 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>199201.jpg</v>
+        <v>199202.jpg</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1578,21 +1575,6 @@
         <v>7</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>199202.jpg</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>1992</v>
-      </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" t="str">
         <f t="shared" si="0"/>
         <v>199203.jpg</v>
       </c>

--- a/warlock/checklist.xlsx
+++ b/warlock/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/warlock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAE4A61C-6B04-CA43-A6E7-D39547E7D4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED799E6-29E6-5B4C-9B3A-D76DC03AE1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6A734755-0472-A246-937B-814011631BB2}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>1987/01</t>
   </si>
   <si>
-    <t>社会思想社</t>
-  </si>
-  <si>
     <t>1987/03</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>1992/03</t>
+  </si>
+  <si>
+    <t>Shakaishisosha</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D2" sqref="D2:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(SUBSTITUTE(B2,"/",""),".jpg")</f>
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E64" si="0">CONCATENATE(SUBSTITUTE(B3,"/",""),".jpg")</f>
@@ -669,10 +669,10 @@
         <v>1987</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -684,10 +684,10 @@
         <v>1987</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -699,10 +699,10 @@
         <v>1987</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -714,10 +714,10 @@
         <v>1987</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -729,10 +729,10 @@
         <v>1987</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -744,10 +744,10 @@
         <v>1987</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -759,10 +759,10 @@
         <v>1987</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -774,10 +774,10 @@
         <v>1987</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -789,10 +789,10 @@
         <v>1987</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -804,10 +804,10 @@
         <v>1987</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -819,10 +819,10 @@
         <v>1988</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -834,10 +834,10 @@
         <v>1988</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -849,10 +849,10 @@
         <v>1988</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -864,10 +864,10 @@
         <v>1988</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -879,10 +879,10 @@
         <v>1988</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -894,10 +894,10 @@
         <v>1988</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -909,10 +909,10 @@
         <v>1988</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -924,10 +924,10 @@
         <v>1988</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -939,10 +939,10 @@
         <v>1988</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -954,10 +954,10 @@
         <v>1988</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -969,10 +969,10 @@
         <v>1988</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -984,10 +984,10 @@
         <v>1988</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -999,10 +999,10 @@
         <v>1989</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -1014,10 +1014,10 @@
         <v>1989</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -1029,10 +1029,10 @@
         <v>1989</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -1044,10 +1044,10 @@
         <v>1989</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -1059,10 +1059,10 @@
         <v>1989</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -1074,10 +1074,10 @@
         <v>1989</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -1089,10 +1089,10 @@
         <v>1989</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -1104,10 +1104,10 @@
         <v>1989</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -1119,10 +1119,10 @@
         <v>1989</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -1134,10 +1134,10 @@
         <v>1989</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -1149,10 +1149,10 @@
         <v>1989</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -1164,10 +1164,10 @@
         <v>1989</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -1179,10 +1179,10 @@
         <v>1990</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -1194,10 +1194,10 @@
         <v>1990</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -1209,10 +1209,10 @@
         <v>1990</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -1224,10 +1224,10 @@
         <v>1990</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -1239,10 +1239,10 @@
         <v>1990</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -1254,10 +1254,10 @@
         <v>1990</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -1269,10 +1269,10 @@
         <v>1990</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
@@ -1284,10 +1284,10 @@
         <v>1990</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
@@ -1299,10 +1299,10 @@
         <v>1990</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -1314,10 +1314,10 @@
         <v>1990</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
@@ -1329,10 +1329,10 @@
         <v>1990</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
@@ -1344,10 +1344,10 @@
         <v>1990</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -1359,10 +1359,10 @@
         <v>1991</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
@@ -1374,10 +1374,10 @@
         <v>1991</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
@@ -1389,10 +1389,10 @@
         <v>1991</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -1404,10 +1404,10 @@
         <v>1991</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
@@ -1419,10 +1419,10 @@
         <v>1991</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
@@ -1434,10 +1434,10 @@
         <v>1991</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -1449,10 +1449,10 @@
         <v>1991</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
@@ -1464,10 +1464,10 @@
         <v>1991</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
@@ -1479,10 +1479,10 @@
         <v>1991</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -1494,10 +1494,10 @@
         <v>1991</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
@@ -1509,10 +1509,10 @@
         <v>1991</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
@@ -1524,10 +1524,10 @@
         <v>1991</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -1539,10 +1539,10 @@
         <v>1992</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
@@ -1554,10 +1554,10 @@
         <v>1992</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
@@ -1569,10 +1569,10 @@
         <v>1992</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>

--- a/warlock/checklist.xlsx
+++ b/warlock/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/warlock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED799E6-29E6-5B4C-9B3A-D76DC03AE1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC23C3A-6DA4-3348-B47B-F2C79F3CABCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6A734755-0472-A246-937B-814011631BB2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="71">
   <si>
     <t>year</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>Shakaishisosha</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>periodical</t>
   </si>
 </sst>
 </file>
@@ -606,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83F7A66-A304-A041-AEDA-FBBD35392350}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D64"/>
+      <selection activeCell="F2" sqref="F2:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,7 +623,7 @@
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,8 +639,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -648,8 +657,11 @@
         <f>CONCATENATE(SUBSTITUTE(B2,"/",""),".jpg")</f>
         <v>198612.jpg</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1987</v>
       </c>
@@ -663,8 +675,11 @@
         <f t="shared" ref="E3:E64" si="0">CONCATENATE(SUBSTITUTE(B3,"/",""),".jpg")</f>
         <v>198701.jpg</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1987</v>
       </c>
@@ -678,8 +693,11 @@
         <f t="shared" si="0"/>
         <v>198703.jpg</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1987</v>
       </c>
@@ -693,8 +711,11 @@
         <f t="shared" si="0"/>
         <v>198704.jpg</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1987</v>
       </c>
@@ -708,8 +729,11 @@
         <f t="shared" si="0"/>
         <v>198705.jpg</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1987</v>
       </c>
@@ -723,8 +747,11 @@
         <f t="shared" si="0"/>
         <v>198706.jpg</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1987</v>
       </c>
@@ -738,8 +765,11 @@
         <f t="shared" si="0"/>
         <v>198707.jpg</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1987</v>
       </c>
@@ -753,8 +783,11 @@
         <f t="shared" si="0"/>
         <v>198708.jpg</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1987</v>
       </c>
@@ -768,8 +801,11 @@
         <f t="shared" si="0"/>
         <v>198709.jpg</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1987</v>
       </c>
@@ -783,8 +819,11 @@
         <f t="shared" si="0"/>
         <v>198710.jpg</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -798,8 +837,11 @@
         <f t="shared" si="0"/>
         <v>198711.jpg</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1987</v>
       </c>
@@ -813,8 +855,11 @@
         <f t="shared" si="0"/>
         <v>198712.jpg</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1988</v>
       </c>
@@ -828,8 +873,11 @@
         <f t="shared" si="0"/>
         <v>198801.jpg</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1988</v>
       </c>
@@ -843,8 +891,11 @@
         <f t="shared" si="0"/>
         <v>198802.jpg</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1988</v>
       </c>
@@ -858,8 +909,11 @@
         <f t="shared" si="0"/>
         <v>198803.jpg</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1988</v>
       </c>
@@ -873,8 +927,11 @@
         <f t="shared" si="0"/>
         <v>198804.jpg</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1988</v>
       </c>
@@ -888,8 +945,11 @@
         <f t="shared" si="0"/>
         <v>198805.jpg</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1988</v>
       </c>
@@ -903,8 +963,11 @@
         <f t="shared" si="0"/>
         <v>198806.jpg</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1988</v>
       </c>
@@ -918,8 +981,11 @@
         <f t="shared" si="0"/>
         <v>198807.jpg</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1988</v>
       </c>
@@ -933,8 +999,11 @@
         <f t="shared" si="0"/>
         <v>198808.jpg</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1988</v>
       </c>
@@ -948,8 +1017,11 @@
         <f t="shared" si="0"/>
         <v>198809.jpg</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1988</v>
       </c>
@@ -963,8 +1035,11 @@
         <f t="shared" si="0"/>
         <v>198810.jpg</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1988</v>
       </c>
@@ -978,8 +1053,11 @@
         <f t="shared" si="0"/>
         <v>198811.jpg</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1988</v>
       </c>
@@ -993,8 +1071,11 @@
         <f t="shared" si="0"/>
         <v>198812.jpg</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1989</v>
       </c>
@@ -1008,8 +1089,11 @@
         <f t="shared" si="0"/>
         <v>198901.jpg</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1989</v>
       </c>
@@ -1023,8 +1107,11 @@
         <f t="shared" si="0"/>
         <v>198902.jpg</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1989</v>
       </c>
@@ -1038,8 +1125,11 @@
         <f t="shared" si="0"/>
         <v>198903.jpg</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1989</v>
       </c>
@@ -1053,8 +1143,11 @@
         <f t="shared" si="0"/>
         <v>198904.jpg</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1989</v>
       </c>
@@ -1068,8 +1161,11 @@
         <f t="shared" si="0"/>
         <v>198905.jpg</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1989</v>
       </c>
@@ -1083,8 +1179,11 @@
         <f t="shared" si="0"/>
         <v>198906.jpg</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1989</v>
       </c>
@@ -1098,8 +1197,11 @@
         <f t="shared" si="0"/>
         <v>198907.jpg</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1989</v>
       </c>
@@ -1113,8 +1215,11 @@
         <f t="shared" si="0"/>
         <v>198908.jpg</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1989</v>
       </c>
@@ -1128,8 +1233,11 @@
         <f t="shared" si="0"/>
         <v>198909.jpg</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1989</v>
       </c>
@@ -1143,8 +1251,11 @@
         <f t="shared" si="0"/>
         <v>198910.jpg</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1989</v>
       </c>
@@ -1158,8 +1269,11 @@
         <f t="shared" si="0"/>
         <v>198911.jpg</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1989</v>
       </c>
@@ -1173,8 +1287,11 @@
         <f t="shared" si="0"/>
         <v>198912.jpg</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1990</v>
       </c>
@@ -1188,8 +1305,11 @@
         <f t="shared" si="0"/>
         <v>199001.jpg</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1990</v>
       </c>
@@ -1203,8 +1323,11 @@
         <f t="shared" si="0"/>
         <v>199002.jpg</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1990</v>
       </c>
@@ -1218,8 +1341,11 @@
         <f t="shared" si="0"/>
         <v>199003.jpg</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1990</v>
       </c>
@@ -1233,8 +1359,11 @@
         <f t="shared" si="0"/>
         <v>199004.jpg</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1990</v>
       </c>
@@ -1248,8 +1377,11 @@
         <f t="shared" si="0"/>
         <v>199005.jpg</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1990</v>
       </c>
@@ -1263,8 +1395,11 @@
         <f t="shared" si="0"/>
         <v>199006.jpg</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1990</v>
       </c>
@@ -1278,8 +1413,11 @@
         <f t="shared" si="0"/>
         <v>199007.jpg</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1990</v>
       </c>
@@ -1293,8 +1431,11 @@
         <f t="shared" si="0"/>
         <v>199008.jpg</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1990</v>
       </c>
@@ -1308,8 +1449,11 @@
         <f t="shared" si="0"/>
         <v>199009.jpg</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1990</v>
       </c>
@@ -1323,8 +1467,11 @@
         <f t="shared" si="0"/>
         <v>199010.jpg</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1990</v>
       </c>
@@ -1338,8 +1485,11 @@
         <f t="shared" si="0"/>
         <v>199011.jpg</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1990</v>
       </c>
@@ -1353,8 +1503,11 @@
         <f t="shared" si="0"/>
         <v>199012.jpg</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1991</v>
       </c>
@@ -1368,8 +1521,11 @@
         <f t="shared" si="0"/>
         <v>199101.jpg</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1991</v>
       </c>
@@ -1383,8 +1539,11 @@
         <f t="shared" si="0"/>
         <v>199102.jpg</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1991</v>
       </c>
@@ -1398,8 +1557,11 @@
         <f t="shared" si="0"/>
         <v>199103.jpg</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1991</v>
       </c>
@@ -1413,8 +1575,11 @@
         <f t="shared" si="0"/>
         <v>199104.jpg</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1991</v>
       </c>
@@ -1428,8 +1593,11 @@
         <f t="shared" si="0"/>
         <v>199105.jpg</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1991</v>
       </c>
@@ -1443,8 +1611,11 @@
         <f t="shared" si="0"/>
         <v>199106.jpg</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1991</v>
       </c>
@@ -1458,8 +1629,11 @@
         <f t="shared" si="0"/>
         <v>199107.jpg</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1991</v>
       </c>
@@ -1473,8 +1647,11 @@
         <f t="shared" si="0"/>
         <v>199108.jpg</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1991</v>
       </c>
@@ -1488,8 +1665,11 @@
         <f t="shared" si="0"/>
         <v>199109.jpg</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1991</v>
       </c>
@@ -1503,8 +1683,11 @@
         <f t="shared" si="0"/>
         <v>199110.jpg</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1991</v>
       </c>
@@ -1518,8 +1701,11 @@
         <f t="shared" si="0"/>
         <v>199111.jpg</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1991</v>
       </c>
@@ -1533,8 +1719,11 @@
         <f t="shared" si="0"/>
         <v>199112.jpg</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1992</v>
       </c>
@@ -1548,8 +1737,11 @@
         <f t="shared" si="0"/>
         <v>199201.jpg</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1992</v>
       </c>
@@ -1563,8 +1755,11 @@
         <f t="shared" si="0"/>
         <v>199202.jpg</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1992</v>
       </c>
@@ -1577,6 +1772,9 @@
       <c r="E64" t="str">
         <f t="shared" si="0"/>
         <v>199203.jpg</v>
+      </c>
+      <c r="F64" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
